--- a/Excel_Appender/Excel_Files_To_Append/ilanlar_5.xlsx
+++ b/Excel_Appender/Excel_Files_To_Append/ilanlar_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,53 +498,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATÖLYE'DEN HASANAĞA BAHÇESİ YAKINI TADİLATLI 135 M² KİRALIK 3+1</t>
+          <t>ADATEPEDE EŞYALİ-BAHÇELİ 1+1 KİRALİK DAİRE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>12 Yaşında</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104396-91</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/146020-66</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -561,48 +561,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI KİRALIK DAİRE</t>
+          <t>BUCA ATATÜRK MAH.'NDE EŞYALI KİRALIK DAİRE (1+1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.000
+          <t>17.500
 TL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>18 Yaşında</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1067</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145065-57</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -612,24 +612,29 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Buca yeşilbağlar mah kiralık arakat 165m2  3+1Doğalgazlı</t>
+          <t>KOZAĞAÇ MERKEZDE 3+1 ÇİFT CEPHE 150 M2 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Göksu Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18.000
+          <t>25.000
 TL</t>
         </is>
       </c>
@@ -640,27 +645,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>165 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/30304-195</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/147777-156</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -682,123 +687,128 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATAMER GAYRİMENKUL'DEN DOĞALGAZLI 2+1 DAİRE.</t>
+          <t>MYWAY RESİDANCE KİRALIK EŞYALI LOFT 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Buca Koop. Mah.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18.500
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151729-6</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-buca-koop-kiralik/daire/134354-1378</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3+1 BAKIMLI FERAH KİRALIK DAİRE</t>
+          <t>ŞİRİNYER İZBANA YAKIN 1+1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>49 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/145175-89</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/142604-71</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Soba</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Buca Şirinyer Hürriyet Mah 2+1 100 M2 D.gazlı İzban 5 Dk</t>
+          <t>AY GAYRİMENKULDEN ŞİRİNYER MERKEZDE KİRALIK DAİRE !!!</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -808,7 +818,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.000
+          <t>17.500
 TL</t>
         </is>
       </c>
@@ -819,12 +829,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -834,12 +844,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>25-10-2024</t>
+          <t>11-10-2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/83461-589</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/144455-62</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -856,48 +866,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Şirinyer Merkezi Konumda Migros Karşı Sokağı 3+1 Doğalgazlı</t>
+          <t>Buca Kozağaç Mah. Kiralık Daire</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Güven Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/142245-164</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/151855-14</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -914,17 +924,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BUCA ADA EMLAKTN DUMLUPINAR MAHALLESİNDE 2+1 KİRALIK MÜSTAKİL EV</t>
+          <t>MERKEZi LOKASYONDA,KAPALI MUTFAK,ARA KAT, 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20.000
+          <t>21.500
 TL</t>
         </is>
       </c>
@@ -935,27 +945,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/145203-52</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/142478-78</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -972,48 +982,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-AY GAYRİMENKUL'DEN- YAYLACIK MH. FULL EŞYALI 3+1 KİRALIK DAİRE!</t>
+          <t>GOLDİA HASANAĞA PARKI YAKINI EŞYALI KİRALIK 1+1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>35.000
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>27-09-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144455-55</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-203</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1024,59 +1034,59 @@
       <c r="K10" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BUCANIN MERKEZİ ÜÇKUYULARDA YENİLENMİŞ BİNADAKİ MÜKEMMEL DAİRE</t>
+          <t>Çalışan Bekar Bay/Bayan Kamu Personeli veya Kız Öğrenciye Kiralık Müstakil Ev</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Ufuk Mah.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>141 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4. Kat</t>
+          <t>29 Yaşında</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/0-43428890</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ufuk-kiralik/mustakil-ev/0-43615089</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1093,23 +1103,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KATEK'den BUCA ADATEPE 2+1 FUL EŞYALIKAPALI M.DOGALGAZ VE KLİMA</t>
+          <t>KİRALIK EŞYALI ŞİRİNYER VERGİ DAİRESİ ECEVİT PARKI BİTİŞİĞİ 880/4 SOK NO 6 DAİRE 5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Dicle Mah.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1119,22 +1129,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144487-78</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-dicle-kiralik/daire/66676-134</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1145,122 +1155,127 @@
       <c r="K12" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BUCA TINAZTEPE YAKINI KISMİ EŞYALI 3+1 KİRALIK DAİRE</t>
+          <t>ER YAPI EMLAK OFİSİNDEN T.TEPE KAMPÜS KARŞISI CADDE ÜZERİ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>38.000
+          <t>14.500
 TL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>49 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/149990-74</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/68864-2460</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VOLKAN EMLAKTAN BUCA PARK ORMAN EVLERİ (TOKİ 1.ETAP EVLERİ) 3+1</t>
+          <t>Üniversite Yakını 1+0 Eşyalı Doğalgazlı Kiralık Lüx Daire</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Aydoğdu Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>23.000
+          <t>12.500
 TL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>43 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09-10-2024</t>
+          <t>01-11-2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/59475-1041</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144765-78</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1272,17 +1287,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SAFİR'den Kampüs Karşısı Ara Kat Balkonlu 2+1 Daire</t>
+          <t>BUCA YILDIZ MAH. 2+1 90M2 FULL EŞYALI KLİMALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15.000
+          <t>20.000
 TL</t>
         </is>
       </c>
@@ -1293,27 +1308,27 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>12 Yaşında</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-319</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/111716-1105</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1330,17 +1345,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BUCA ÇEVİKBİR MEYDAN BUCA SSK YANINDA ARAKAT 3+1 D.GAZLİ BALKONLU KIRALIK DAIRE</t>
+          <t>Ufuk Mh. 3+1 135+M2 Doğalgazlı Ara Kat Kiralık Daire</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Ufuk Mah.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>25.000
+          <t>20.000
 TL</t>
         </is>
       </c>
@@ -1351,27 +1366,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/111716-963</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ufuk-kiralik/daire/24511-9113</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1393,7 +1408,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BOZBEY EMLAK'TAN BUCA FIRAT MAH. 3+1 130 M2 KİRALIK DAİRE</t>
+          <t>BUCA FIRAT MAHALLESİNDE ZEMİN KAT BAHÇELİ DOĞALGAZLI 3+1 KİRALIK DAİRE!</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1403,7 +1418,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15.000
+          <t>16.000
 TL</t>
         </is>
       </c>
@@ -1414,27 +1429,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>135 m²</t>
+          <t>102 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>35 Yaşında</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/64940-56</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/21915-11795</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1444,29 +1459,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Doğalgaz Sobası</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BUCA YAYLACIK MAH.'DE NECİP FAZIL OKULU YAKINI 2+1 EŞYALI KİRALIK DAİRE</t>
+          <t>Ev Sahibinden Kiralik 2 Oda 1 Salon Eşyalı 110m2 Daire</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Barış Mah.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18.500
+          <t>13.000
 TL</t>
         </is>
       </c>
@@ -1477,12 +1492,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>115 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>28 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1492,12 +1507,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>05-11-2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111960-240</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-baris-kiralik/daire/0-43578680</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1507,29 +1522,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DUBLEKS YERDEN ISITMALI TERASLI LÜKS KİRALIK 1+1 DAİRE</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 EŞYALI ARAKAT KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19.450
+          <t>12.500
 TL</t>
         </is>
       </c>
@@ -1540,12 +1555,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>87 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1 Yaşında</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1555,70 +1570,70 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144837-74</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1061</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Yerden Isıtma</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Şirinyer Güven Mh. 3+1 145 M2 Doğalgazlı Arakat Kiralık Daire</t>
+          <t>BUCA YAYLACIK MAHALLESİ 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Güven Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>21.500
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>30-09-2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/24511-9109</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/148573-64</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1629,44 +1644,39 @@
       <c r="K20" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Buca Yaylacık Mah. Arakat Doğalgazlı Eşyalı Kiralık 1+1 Daire...</t>
+          <t>Buca Efeler 3+1 140 M2 Eşyalı D.gazlı İzban 3 Dk</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15.500
+          <t>26.000
 TL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1676,12 +1686,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>25-10-2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151862-1</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/83461-590</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1698,23 +1708,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EFELER MH SEYFİDEMİRSOY YAKINI ''3+1'' ARAKAT-ÇİFT CEPHE-DGAZLI</t>
+          <t>SAHİBİNDEN EŞYALI EV 15.000 tl 6,8 veya 12 aylık olarak da verilir.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Seyhan Mah.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1724,85 +1734,85 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>30 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/104457-70</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-seyhan-kiralik/daire/0-43611318</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BELLA HOME SİTESİ'NDE SIFIR EŞYALI BAHÇELİ 1+1 KİRALIK DAİRE</t>
+          <t>SAHİBİNDEN ARA KAT  EŞYALI DOĞALGAZLI DAİRE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19.500
+          <t>18.500
 TL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>60 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-121</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/0-43388159</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1812,55 +1822,60 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 EŞYALI&amp;KLİMALI KİRALIK DAİR</t>
+          <t>BUCA İŞÇİ EVLERİ YİĞİTLER MAH.'DE EŞYALI 2+1 D.GAZLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yiğitler Mah.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>24 Yaşında</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1066</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/111960-200</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1870,77 +1885,82 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KAMPÜSE YAKIN 2+0 KİRALIK DAİRE</t>
+          <t>UÇANYOL VE ŞİRİNYER YAKINI MERKEZİ KONUMDA 3+1 K.MUTFAK KİRALIK</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yiğitler Mah.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2 + 0</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Kot 1</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/126264-1849</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/145175-90</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ATÖLYE'DEN HASANAĞA BAHÇESİ YAKINI TADİLATLI 135 M² KİRALIK 3+1</t>
+          <t>ATAMER GAYRİMENKUL'DEN MERKEZİ KONUM 3+1 DAİRE.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Şirinkapı Mah.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1956,27 +1976,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104396-91</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-sirinkapi-kiralik/daire/151729-10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1987,149 +2007,139 @@
       <c r="K26" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI KİRALIK DAİRE</t>
+          <t>BUCA KADIN DOĞUM HASTANESİ KARŞISI 2+1 ARAKAT KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>80 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1067</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/15356-5758</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Buca yeşilbağlar mah kiralık arakat 165m2  3+1Doğalgazlı</t>
+          <t>YAYLACIKTA EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Göksu Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>165 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>18 Yaşında</t>
+          <t>1 Yaşında</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/30304-195</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145398-62</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ATAMER GAYRİMENKUL'DEN DOĞALGAZLI 2+1 DAİRE.</t>
+          <t>BUCA ADA EMLAKTAN YILDIZ MAH. 2+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>18.500
+          <t>22.000
 TL</t>
         </is>
       </c>
@@ -2140,32 +2150,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151729-6</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/145203-53</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2177,17 +2187,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3+1 BAKIMLI FERAH KİRALIK DAİRE</t>
+          <t>BUCA VALİRAHMİBEY MAHALLESİNDE 3+1 140 M2 KİRALİK EV</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23.000
+          <t>22.000
 TL</t>
         </is>
       </c>
@@ -2198,12 +2208,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>28 Yaşında</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2213,12 +2223,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/145175-89</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/146020-65</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2240,53 +2250,53 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Buca Şirinyer Hürriyet Mah 2+1 100 M2 D.gazlı İzban 5 Dk</t>
+          <t>TINAZTEPE ANA CADDE ÜSTÜ SIFIR EŞYALI KİRALIK 1+1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>25-10-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/83461-589</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-155</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2303,17 +2313,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Şirinyer Merkezi Konumda Migros Karşı Sokağı 3+1 Doğalgazlı</t>
+          <t>AY GAYRİMENKUL'DEN YAYLACIK MH. 3+1 FERAH KİRALIK DAİRE!!</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Güven Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21.000
+          <t>19.000
 TL</t>
         </is>
       </c>
@@ -2324,27 +2334,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>11-10-2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/142245-164</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144455-61</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2361,12 +2371,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BUCA ADA EMLAKTN DUMLUPINAR MAHALLESİNDE 2+1 KİRALIK MÜSTAKİL EV</t>
+          <t>ADATEPE PAZAR YERİ KARŞISI 2+1 FULL EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2387,22 +2397,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>31 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>26-09-2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/145203-52</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/147777-148</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2412,29 +2422,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-AY GAYRİMENKUL'DEN- YAYLACIK MH. FULL EŞYALI 3+1 KİRALIK DAİRE!</t>
+          <t>SAYGIN GAYRİMENKUL DEN ATATÜRK MAHALLESİNDE 3+1 KİRALIK DAİRE ÇOCUK HASTANESİNİN YANINDA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>35.000
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -2445,27 +2455,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>27-09-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144455-55</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/146420-20</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2475,55 +2485,60 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BUCANIN MERKEZİ ÜÇKUYULARDA YENİLENMİŞ BİNADAKİ MÜKEMMEL DAİRE</t>
+          <t>Buca Kuruçeşme Mah. Kiralık Eşyalı 1+1 Daire</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>26.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>141 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>01-11-2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/0-43428890</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/151855-13</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2533,72 +2548,72 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KATEK'den BUCA ADATEPE 2+1 FUL EŞYALIKAPALI M.DOGALGAZ VE KLİMA</t>
+          <t>bucaPARİSA'DAN KAMPÜS YAKINI HAVUZLU SİTE İÇİ D.GAZLI KLİMALI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20.000
+          <t>20.500
 TL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>58 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>7. Kat</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>19-10-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144487-78</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/143816-40</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BUCA TINAZTEPE YAKINI KISMİ EŞYALI 3+1 KİRALIK DAİRE</t>
+          <t>ER YAPI EMLAK OFİSİNDEN HASANAĞA BAHÇESİ YANI İİBF'YE 5 DAKİKA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2608,38 +2623,38 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>38.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>Bahçe Katı</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>01-10-2024</t>
+          <t>10-10-2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/149990-74</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/68864-2455</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2649,29 +2664,24 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>VOLKAN EMLAKTAN BUCA PARK ORMAN EVLERİ (TOKİ 1.ETAP EVLERİ) 3+1</t>
+          <t>Buca kasaplar sokağı eşyalı daire</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Aydoğdu Mah.</t>
+          <t>İzmir / Buca / Dumlupınar Mah.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>23.000
+          <t>25.000
 TL</t>
         </is>
       </c>
@@ -2682,80 +2692,85 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>09-10-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/59475-1041</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/9521-797</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Soba</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SAFİR'den Kampüs Karşısı Ara Kat Balkonlu 2+1 Daire</t>
+          <t>AVA EMLAK'TAN ŞİRİNYER'DE 3+1 145 M2 ASANSÖRLÜ GENİŞ DAİRE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Yiğitler Mah.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15.000
+          <t>29.000
 TL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>145 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>07-10-2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-319</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/85533-1770</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2766,44 +2781,39 @@
       <c r="K39" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BUCA ÇEVİKBİR MEYDAN BUCA SSK YANINDA ARAKAT 3+1 D.GAZLİ BALKONLU KIRALIK DAIRE</t>
+          <t>Adatepe'de, Hasanağa ve İİBF Yakınında Eşyalı 1+1 Kiralık Daire.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>25.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2813,133 +2823,128 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/111716-963</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/151862-11</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BOZBEY EMLAK'TAN BUCA FIRAT MAH. 3+1 130 M2 KİRALIK DAİRE</t>
+          <t>BUCA SEYFİ DEMİRSOY HAST. ARKASI 1+1 KLİMALI MERKEZİ DAİRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Fırat Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>135 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>12-10-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/64940-56</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/111716-1092</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BUCA YAYLACIK MAH.'DE NECİP FAZIL OKULU YAKINI 2+1 EŞYALI KİRALIK DAİRE</t>
+          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI 1+1 EŞYALI KİRALIK</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18.500
+          <t>15.250
 TL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>28 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111960-240</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142618-204</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2956,48 +2961,48 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DUBLEKS YERDEN ISITMALI TERASLI LÜKS KİRALIK 1+1 DAİRE</t>
+          <t>İnkilap Mh. Adli Tıp Yanı 3+1 Doğalgazlı Kiralık Daire</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>19.450
+          <t>24.000
 TL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>87 m²</t>
+          <t>145 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144837-74</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/24511-9112</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3008,44 +3013,39 @@
       <c r="K43" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Şirinyer Güven Mh. 3+1 145 M2 Doğalgazlı Arakat Kiralık Daire</t>
+          <t>ultra lüks kiralık evler</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Güven Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21.500
+          <t>300
 TL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>2 Yaşında</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3055,97 +3055,92 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/24511-9109</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/residence/138098-19</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Klima</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Buca Yaylacık Mah. Arakat Doğalgazlı Eşyalı Kiralık 1+1 Daire...</t>
+          <t>Buca Fırat Mahallesinde Ara Kat Doğalgazlı 3+1 Kiralık Daire</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Fırat Mah.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15.500
+          <t>21.000
 TL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>35 Yaşında</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151862-1</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/21915-11794</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EFELER MH SEYFİDEMİRSOY YAKINI ''3+1'' ARAKAT-ÇİFT CEPHE-DGAZLI</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 2+1 EŞYALI&amp;D.GAZLI KİRALIK DAİR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3156,32 +3151,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>30 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/104457-70</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1060</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3192,117 +3187,117 @@
       <c r="K46" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BELLA HOME SİTESİ'NDE SIFIR EŞYALI BAHÇELİ 1+1 KİRALIK DAİRE</t>
+          <t>3 ODA 1 SALON ,YÜKSEK ZEMİN -120 M2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / İnönü Mah.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>19.500
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>60 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-121</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inonu-kiralik/daire/13470-2486</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Isıtma Yok</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 EŞYALI&amp;KLİMALI KİRALIK DAİR</t>
+          <t>BUCA YILDIZ MAH. EŞYALI 2+1 KAPALI MUTFAK , BAHÇELİ DAİRE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>02-11-2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1066</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/144765-77</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3312,55 +3307,60 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KAMPÜSE YAKIN 2+0 KİRALIK DAİRE</t>
+          <t>ERA NİVA'DAN KURUÇEŞME'DE KİRALIK EŞYALI 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>13.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2 + 0</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>53 m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>8 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Kot 1</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>01-11-2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/126264-1849</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/140088-452</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3377,17 +3377,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ATÖLYE'DEN HASANAĞA BAHÇESİ YAKINI TADİLATLI 135 M² KİRALIK 3+1</t>
+          <t>Buca Çamlıkule Mah. Site İçerisinde 3+1 Kiralık Daire</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18.000
+          <t>26.500
 TL</t>
         </is>
       </c>
@@ -3403,22 +3403,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>01-10-2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104396-91</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/126264-1794</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3429,59 +3429,54 @@
       <c r="K50" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI KİRALIK DAİRE</t>
+          <t>MERKEZİ KONUMDA DOĞALGAZLI FULL EŞYALI 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>170 m²</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1067</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/145175-88</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3491,29 +3486,24 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Buca yeşilbağlar mah kiralık arakat 165m2  3+1Doğalgazlı</t>
+          <t>ATAMER GAYRİMENKUL'DEN İÇİ FULL YAPILI 160 M2 DAİRE.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Göksu Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18.000
+          <t>30.000
 TL</t>
         </is>
       </c>
@@ -3524,27 +3514,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>165 m²</t>
+          <t>175 m²</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18 Yaşında</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>01-11-2024</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/30304-195</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/151729-7</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3561,17 +3551,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ATAMER GAYRİMENKUL'DEN DOĞALGAZLI 2+1 DAİRE.</t>
+          <t>ÇAMLIPINAR MAH. 110 M2 ARAKAT DOĞALGAZLI 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Çamlıpınar Mah.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>18.500
+          <t>15.500
 TL</t>
         </is>
       </c>
@@ -3582,27 +3572,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151729-6</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/18435-5269</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3612,55 +3602,60 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3+1 BAKIMLI FERAH KİRALIK DAİRE</t>
+          <t>TURYAP BUCA'DAN DUMLUPINAR MH'DE TARİHİ MÜSTAKİL RUM EVİ</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Dumlupınar Mah.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>23.000
+          <t>30.000
 TL</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>99 m²</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>4. Kat</t>
+          <t>100 Yaşında</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>30-10-2024</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/145175-89</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/15356-5756</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3677,28 +3672,28 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Buca Şirinyer Hürriyet Mah 2+1 100 M2 D.gazlı İzban 5 Dk</t>
+          <t>YAYLACIKTA EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3708,75 +3703,80 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>25-10-2024</t>
+          <t>22-10-2024</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/83461-589</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145398-60</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Şirinyer Merkezi Konumda Migros Karşı Sokağı 3+1 Doğalgazlı</t>
+          <t>KADIN DOĞUM HASTANESİ KARŞISI 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Güven Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>21.000
+          <t>19.000
 TL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>21-10-2024</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/142245-164</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/14003-1490</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3786,60 +3786,60 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BUCA ADA EMLAKTN DUMLUPINAR MAHALLESİNDE 2+1 KİRALIK MÜSTAKİL EV</t>
+          <t>DOĞUŞ CAD. ÜZERİNDE KAMPÜS KARŞISI KİRALIK 1+1 EŞYALI REZİDANS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Dumlupınar Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>20.000
+          <t>16.000
 TL</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>31 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Bahçe Katı</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/mustakil-ev/145203-52</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144696-154</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3849,24 +3849,29 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Yerden Isıtma</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-AY GAYRİMENKUL'DEN- YAYLACIK MH. FULL EŞYALI 3+1 KİRALIK DAİRE!</t>
+          <t>AY GAYRİMENKUL'DEN ŞİRİNYER İZBAN DİBİ 3+1 KİRALIK DAİRE!!</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>35.000
+          <t>21.500
 TL</t>
         </is>
       </c>
@@ -3877,17 +3882,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>11 Yaşında</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3897,7 +3902,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/144455-55</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/144455-54</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3908,28 +3913,23 @@
       <c r="K58" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BUCANIN MERKEZİ ÜÇKUYULARDA YENİLENMİŞ BİNADAKİ MÜKEMMEL DAİRE</t>
+          <t>BUCA ADA EMLAKTAN YAYLACIK MH. 3+1 SİTE İÇERSİNDE KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>26.000
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -3940,59 +3940,54 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>141 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>7. Kat</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/0-43428890</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/145203-45</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Isıtma Yok</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>KATEK'den BUCA ADATEPE 2+1 FUL EŞYALIKAPALI M.DOGALGAZ VE KLİMA</t>
+          <t>BUCA YILDIZ MAHALLESİNDE 2+1 KİRALİK DAİRE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -4003,12 +3998,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>70 m²</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4018,88 +4013,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>19-10-2024</t>
+          <t>23-10-2024</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144487-78</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/146020-44</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Elektrik</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>BUCA TINAZTEPE YAKINI KISMİ EŞYALI 3+1 KİRALIK DAİRE</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>38.000
-TL</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>3 + 1</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>130 m²</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>16 Yaşında</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>8. Kat</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>01-10-2024</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/149990-74</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
